--- a/oauth-server/src/main/resources/account_template.xlsx
+++ b/oauth-server/src/main/resources/account_template.xlsx
@@ -76,12 +76,86 @@
     <font>
       <sz val="12"/>
       <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -110,9 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -120,32 +193,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -163,65 +221,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -238,6 +237,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,157 +375,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +442,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +509,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,65 +552,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,145 +572,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1050,7 +1046,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1062,98 +1058,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>12345678</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>17782918059</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>12345678</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
-        <v>18812345678</v>
+      <c r="D3" s="4">
+        <v>18812345679</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>12345678</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
-        <v>18612345678</v>
+      <c r="D4" s="4">
+        <v>18612345673</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>12345678</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5">
-        <v>18512345678</v>
+      <c r="D5" s="4">
+        <v>18512345628</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1319,82 +1315,82 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
